--- a/excel/问题3相关表格/6-1两个模型的化学成分选择表.xlsx
+++ b/excel/问题3相关表格/6-1两个模型的化学成分选择表.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deng'yu'hai\Desktop\2022国赛\2022_model\excel\问题3相关表格\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCCA796-AAC0-412A-89DC-49DA6EF01B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3F7393-5A13-4E3A-B4BC-0525B650596C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25812" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -178,7 +186,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -463,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
